--- a/results/s_course.txt_30_yaw_change.xlsx
+++ b/results/s_course.txt_30_yaw_change.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyom\Documents\Projects\autonomous_vehicles1\path-planning-simulation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{277D8A21-12F8-4A2A-A7BF-26E97818FC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59A8F77-280A-4CAA-AC25-31C85B0C0826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s_course.txt_30_yaw_change" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,6 +579,6134 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Yaw change at 30 km/h</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_course.txt_30_yaw_change!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_course.txt_30_yaw_change!$A$2:$A$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="207"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>20.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_course.txt_30_yaw_change!$B$2:$B$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="207"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>-3.84492822381006E-16</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>-1.1128591096411E-18</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>5.5723364377263896E-19</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>5.55625465868416E-19</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>-1.1128591096411499E-18</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>5.5723364377263896E-19</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>5.55625465868416E-19</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>-1.1128591096411E-18</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>5.5723364377268798E-19</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>5.5562546586851403E-19</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>-1.11285910964105E-18</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>5.5723364377268798E-19</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>5.5562546586846502E-19</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>-1.11285910964105E-18</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>5.5723364377268798E-19</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>-1.1160824575272E-18</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00E+00">
+                  <c:v>5.5884881375461704E-19</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>5.5723364377273796E-19</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>-1.1160824575272499E-18</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00E+00">
+                  <c:v>5.5884881375466595E-19</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00E+00">
+                  <c:v>5.5723364377268798E-19</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00E+00">
+                  <c:v>-1.1160824575272E-18</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00E+00">
+                  <c:v>5.5884881375461704E-19</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00E+00">
+                  <c:v>5.5723364377268798E-19</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00E+00">
+                  <c:v>-1.1160824575272E-18</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00E+00">
+                  <c:v>5.5884881375466595E-19</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00E+00">
+                  <c:v>5.5723364377268798E-19</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00E+00">
+                  <c:v>-1.1160824575272499E-18</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00E+00">
+                  <c:v>5.5884881375456802E-19</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00E+00">
+                  <c:v>5.5723364377254103E-19</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00E+00">
+                  <c:v>-1.1160824575273E-18</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00E+00">
+                  <c:v>5.5884881375451901E-19</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.00E+00">
+                  <c:v>5.5723364377259004E-19</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00E+00">
+                  <c:v>-1.1160824575273501E-18</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00E+00">
+                  <c:v>5.5884881375451901E-19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.0251119536488496E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.43111313937013E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2128086731828499E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.86125915908911E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.3891858681365399E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.4591829417317804E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.8197728246761299E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.9920165361809798E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.1006960057441401E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.1510023381743803E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.1482146292408498E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.0978104163817398E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.54634400829131E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.2762861254576801E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.1672494177432897E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.7248950904179599E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3629518524173003E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.4514790918466301E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3030318442561599E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.4140932546543601E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.32889812661052E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-6.3475171946026903E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.0104208826317599E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.3579931576265501E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.66526308917706E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.9354723820983299E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.0491132157517401E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.3817505678420801E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.55653964997604E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.7007786368584599E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-2.81509472300751E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.8999729600566501E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2.95592314853718E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2.98362639179118E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-3.1459998184563402E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.9316167063676801E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.8823828845563001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2.9629350503088701E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.69235602584482E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2.7257849206618001E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2.5702419475404598E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.2839064118189999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.2649886763899001E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.9850362881528999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.94336075709651E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.7702158083111E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.52084680513949E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.46110717634156E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.30422556025141E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1.1559818597977301E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-9.6545376606160995E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-9.0196256612454697E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-7.7986540978008398E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-6.3376239932469401E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-5.75295334195424E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-4.8018024078185801E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-3.7424902967181598E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-3.2396668965042701E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-2.5367062170063999E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-1.8158891639636101E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-1.40574871177866E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-8.6884794231153995E-4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-5.1831617626345999E-4</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1.44999560304972E-4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.6433478243330001E-4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.2828388085809199E-4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.54566254510227E-4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7.9675525546035004E-4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.8532748325846908E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1014871011548501E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1277553463463501E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.2540143083468701E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.29197895446412E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.2436727553089299E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.32079639659169E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.30682000623805E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-2.4581296986634902E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-1.1949033768931701E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-1.9165923595368801E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-2.5226716677318201E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-3.0240912178833498E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-3.4305057295490597E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-3.7500875001619999E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-3.9897922698856697E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-4.1557931796531299E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-4.2539157030865797E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-4.28998143549656E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-8.0773068922701002E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-3.5989799589796201E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-3.5235549718088503E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-3.4196519460549503E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-6.19889914452681E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-2.6306360264094102E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-1.52768576125376E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-2.09865365722713E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-9.8391850276441303E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-2.6674166450286699E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.8490301365392502E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.66217867345042E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.1178418529552699E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.45163032139843E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.7464284054546201E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.8920170835141099E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.2350608420921202E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.4313510192951401E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.5966417362670802E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.7317492705620401E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.8372286637497399E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.9135442286701601E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.9612303983837001E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.9810288275155399E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.1352575024639097E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.91434770106456E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.01324550582939E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.75406249540192E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.80345561979502E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.5227415449325701E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.5312431474955301E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.3651757491649002E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.0834267740358899E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.0495139201959198E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.87640450324013E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.6202732165382899E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.56426564394949E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.40380702128396E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.18786368442122E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.12442824403806E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>9.8716260898286407E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8.1597475560060799E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.54205450720981E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6.4377646837710098E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5.1544094941992297E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.6026183403637304E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.76050659775084E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.8526311271119798E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.3886131566184E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.78008078986633E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.1813870699561701E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8.1020945476903395E-4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.97209701877263E-4</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="0.00E+00">
+                  <c:v>4.0383038576237402E-5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-2.4273933036142101E-4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-5.0010317236490805E-4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-6.7684928588088796E-4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-8.8207965887714102E-4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-1.0213345499583699E-3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-1.07116002568671E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-1.21111402553176E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-1.2652328653792E-3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-1.2316081744293301E-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-1.31942306460297E-3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-1.3158894248433901E-3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-1.2327401053922301E-3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-7.4595132417586997E-4</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="0.00E+00">
+                  <c:v>-9.5718593867574699E-5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-1.12600132414526E-4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-1.3437895545492199E-4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-1.6315209314393301E-4</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-2.0227358001164499E-4</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-2.5738178441671799E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42BC-4DA6-91FC-DE4CDDC5D5BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_course.txt_30_yaw_change!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_course.txt_30_yaw_change!$A$2:$A$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="207"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>20.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_course.txt_30_yaw_change!$C$2:$C$208</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="207"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.59204083889155E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>4.1336745441971197E-2</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>7.8468822104444405E-2</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>7.04641472487849E-2</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>6.3139347635802007E-2</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>5.6328749071801E-2</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>5.0012712828557203E-2</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>4.4236416266014399E-2</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>3.9058635344838902E-2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>3.4521233618099202E-2</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>0.21823771815736201</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>-5.0440910006614402E-2</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>-2.1161984361639699E-2</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>0.161196530048026</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>-3.7621025060374597E-2</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>-5.4214725487271E-2</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>9.18357505476457E-2</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>-4.38848756732724E-2</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>-8.7207060675565204E-2</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>-7.3286913920863006E-2</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>-5.9681474867092001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>-4.6044335521009797E-2</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>-4.9186072409643601E-2</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>-3.3812433509729498E-2</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>-3.4365512877281103E-2</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>-2.9217223771807001E-2</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>-2.5602490368760299E-2</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>-2.6606141423056499E-2</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>-2.2801955981403998E-2</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>-1.6821143181863198E-2</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>-1.9023171972313499E-2</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>-1.6933908194363401E-2</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>-1.52575553994995E-2</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>-1.3874891610018999E-2</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>-1.2705173600483999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>-1.16930837579252E-2</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>-1.0800389607647501E-2</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>-1.1708079911867701E-2</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>-8.6281765433112306E-3</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>-8.1407284261477506E-3</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>-7.6607111237614002E-3</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>-8.4513655169292899E-3</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>-6.2638601832905099E-3</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>-5.9551198660718202E-3</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>-5.6335247304833604E-3</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>-6.23558000471098E-3</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>-4.6349669525055899E-3</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>-4.4116926868865199E-3</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>-4.9135738486665399E-3</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>-3.6573764213918402E-3</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>-3.49070895207102E-3</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>-3.89732143180592E-3</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>-2.9035043696294602E-3</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>-2.7740638321726001E-3</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>-3.0993304081498702E-3</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>-2.3102591122352999E-3</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>-2.2078391063870299E-3</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>-2.4666159167829002E-3</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>-1.8392128169638501E-3</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>-1.7575749175435E-3</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>-1.9630319685556598E-3</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>-1.46396158304868E-3</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>-1.3987609897783101E-3</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>-1.5618060812473899E-3</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>-1.16481729980036E-3</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>-1.11276049850323E-3</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>-1.2421723551490601E-3</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>-9.2642956319583805E-4</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>-8.8491153965587505E-4</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>-9.8767064777144993E-4</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>-7.3658667697468704E-4</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>-8.3072305828966098E-4</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>-6.1978173283354799E-4</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>-5.94796121757943E-4</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>-0.132014477417667</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>-6.7192961111179297E-2</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>-6.0225650165035199E-2</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>-5.3805108610420198E-2</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>-4.7895318175527203E-2</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
+                  <c:v>-4.2522161315387101E-2</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="General">
+                  <c:v>-3.7725851447244101E-2</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="General">
+                  <c:v>-3.3533336395056998E-2</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="General">
+                  <c:v>-2.99457631038186E-2</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="General">
+                  <c:v>-2.6936930281586599E-2</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="General">
+                  <c:v>-0.22361037172152101</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="General">
+                  <c:v>6.8228774465873304E-2</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>2.7894249738544801E-2</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="General">
+                  <c:v>-0.13417621573494101</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="General">
+                  <c:v>1.4452513871907999</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="General">
+                  <c:v>-0.22225464005844001</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="General">
+                  <c:v>-0.122465534670516</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="General">
+                  <c:v>-7.8061652277153198E-2</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="General">
+                  <c:v>-1.02246956018469</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>0.103138610728869</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>0.16265815090814001</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="General">
+                  <c:v>0.118941321442085</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>8.9233754993037803E-2</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="General">
+                  <c:v>6.9587031164196206E-2</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="General">
+                  <c:v>5.3359052551557901E-2</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>4.1192175078500301E-2</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>3.1924980138512797E-2</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>2.5271636495952699E-2</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>1.90700203714529E-2</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="General">
+                  <c:v>1.4888350058324101E-2</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>1.18880530373214E-2</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>8.9836448491744901E-3</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>7.05169246232994E-3</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="General">
+                  <c:v>5.5427356991943197E-3</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>4.48548846716346E-3</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>3.3873050844190201E-3</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="General">
+                  <c:v>2.68446580560511E-3</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>2.2099736760668202E-3</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>1.6677234749749999E-3</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>1.3381831543923699E-3</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>1.1299795221962499E-3</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="General">
+                  <c:v>8.5175946157821901E-4</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>6.9573095240037903E-4</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>6.0835754178834001E-4</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>4.57865141441317E-4</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="General">
+                  <c:v>3.8282732411802498E-4</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="General">
+                  <c:v>3.4951363580138298E-4</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="General">
+                  <c:v>2.6256938845012698E-4</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="General">
+                  <c:v>2.2558299928169501E-4</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="General">
+                  <c:v>2.1582192572204399E-4</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="General">
+                  <c:v>1.6182468879911101E-4</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="General">
+                  <c:v>1.42907120946783E-4</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>1.4288457261069001E-4</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>1.06951121216516E-4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9.6762805578672298E-5</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="General">
+                  <c:v>1.0032522636205499E-4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.4992223745132695E-5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.9136605553431506E-5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.36257042737164E-5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5.49807940849581E-5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5.1363601255274297E-5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5.56994705066804E-5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4.1567229080044698E-5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.9171647754730003E-5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4.2973886369451398E-5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3.20573118197862E-5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6.2332946558818698E-5</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="General">
+                  <c:v>1.0118929458066501E-4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>6.86943157895453E-5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.7516339329087097E-5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3.3452572218842701E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42BC-4DA6-91FC-DE4CDDC5D5BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_course.txt_30_yaw_change!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley with lookahead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_course.txt_30_yaw_change!$A$2:$A$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="207"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>20.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_course.txt_30_yaw_change!$D$2:$D$208</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="207"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.59204083889155E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>0.13220726951505399</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>6.0719122636128199E-2</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>5.3016876832633501E-2</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>4.6584013420179898E-2</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>4.1154749946639202E-2</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>3.6567150067220097E-2</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>3.2708640908636399E-2</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>2.9488454762280701E-2</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>2.6825357492938601E-2</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>2.4643681850765899E-2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>2.28732449852725E-2</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>0.229427937118868</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>-8.2934318934358695E-2</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>-2.9983392972142201E-2</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>0.16209937576733199</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>-2.4074180650106101E-2</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>-8.7848694773933506E-2</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>-6.1400136909411498E-2</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>-5.91315481503367E-2</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>-4.3334805356716702E-2</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>-4.8301925611041401E-2</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>-3.7214262708009198E-2</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>-3.0854811696492498E-2</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>-3.2137356692636003E-2</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>-3.1779994379302103E-2</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>-2.14068311163652E-2</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>-2.39679770617429E-2</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>-2.0602621578285001E-2</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>-1.8202399096275499E-2</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>-1.98930866278118E-2</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>-1.35936111305587E-2</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>-1.59777007192041E-2</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>-1.1042015156209501E-2</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>-1.3503492995285899E-2</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>-1.1923463519927201E-2</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>-1.06962140296304E-2</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>-9.7159112829285302E-3</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>-8.9107667891595802E-3</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>-8.2317056609817005E-3</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>-7.6449881517574696E-3</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>-7.1273140635247003E-3</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>-6.6625290838314899E-3</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>-6.2393862024397503E-3</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>-7.26484089602966E-3</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>-4.9259583638116503E-3</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>-4.7594501153701502E-3</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>-4.5663142627673696E-3</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>-5.4560249309405602E-3</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>-3.7058533441036898E-3</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>-3.6193176100401498E-3</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>-3.49828842174534E-3</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>-4.2082940478336897E-3</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>-2.8622279770967002E-3</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>-2.8026354186612801E-3</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>-3.4188064326156399E-3</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>-2.32571204965976E-3</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>-2.2903511569896998E-3</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>-2.8100214375349299E-3</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>-1.91232759311243E-3</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>-1.88758228260818E-3</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>-2.3207123533316599E-3</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>-1.57992102231085E-3</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>-1.5607280252609101E-3</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>-1.9199677291567099E-3</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>-1.3074598951552799E-3</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>-1.2918299327868E-3</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>-1.5892114915783101E-3</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>-1.08241138785686E-3</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>-1.0694487220547001E-3</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>-1.3154607651678901E-3</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>-8.9603932712983803E-4</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>-0.12983222376987</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>-6.3435673348193E-2</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>-5.5340583780295202E-2</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>-4.8581193677750899E-2</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>-4.2862678124186003E-2</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>-3.8012319475992699E-2</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>-3.3915375049102497E-2</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>-3.0482052464031101E-2</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>-2.76322783743587E-2</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
+                  <c:v>-2.5290423270612299E-2</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="General">
+                  <c:v>-2.33849519377353E-2</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="General">
+                  <c:v>-0.22835586964929899</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="General">
+                  <c:v>8.0909035723737893E-2</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="General">
+                  <c:v>2.9556263543101299E-2</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="General">
+                  <c:v>-0.16446907495369001</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="General">
+                  <c:v>1.41447261329309</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>-1.41447261329309</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="General">
+                  <c:v>0.126289571676683</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="General">
+                  <c:v>0.126396645226314</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="General">
+                  <c:v>8.4004351308393996E-2</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>6.2919661728297202E-2</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="General">
+                  <c:v>4.5478003339085499E-2</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="General">
+                  <c:v>3.4805720181290099E-2</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="General">
+                  <c:v>2.7866053981353001E-2</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="General">
+                  <c:v>2.3147961269698002E-2</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="General">
+                  <c:v>2.32807591869316E-2</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="General">
+                  <c:v>1.5931360831205901E-2</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>1.7574714067467599E-2</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>1.21611290182978E-2</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>1.4243764767170101E-2</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="General">
+                  <c:v>1.24210569027035E-2</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>1.10238948487969E-2</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="General">
+                  <c:v>9.9242245771461405E-3</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="General">
+                  <c:v>9.0351902903704397E-3</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>8.2973313613577196E-3</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>7.6696597900304097E-3</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>7.1237680558098801E-3</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>6.63987583630878E-3</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="General">
+                  <c:v>6.2041462365468297E-3</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>7.2045845343836302E-3</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>4.8852074355372997E-3</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>4.7142765518063904E-3</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="General">
+                  <c:v>4.5189919400860602E-3</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>4.3098453756829601E-3</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>5.1123232762845302E-3</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="General">
+                  <c:v>3.4738647685740001E-3</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>3.3817210132917001E-3</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>3.2608200125649502E-3</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>3.9124332246779896E-3</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>2.6604630544393702E-3</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="General">
+                  <c:v>2.6019273061586501E-3</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>3.1706635696664202E-3</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>2.1560375133666699E-3</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>2.1221616772887902E-3</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="General">
+                  <c:v>2.6031699941570599E-3</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="General">
+                  <c:v>1.7707147286752001E-3</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="General">
+                  <c:v>1.7475508993595799E-3</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="General">
+                  <c:v>1.7011061325223301E-3</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="General">
+                  <c:v>2.0598715906070498E-3</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="General">
+                  <c:v>1.40231937059019E-3</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="General">
+                  <c:v>1.3764269869613001E-3</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>1.6823072933243701E-3</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>1.1448420563420899E-3</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="General">
+                  <c:v>1.1280341259159901E-3</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="General">
+                  <c:v>1.38450100403336E-3</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="General">
+                  <c:v>9.4209589829034499E-4</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="General">
+                  <c:v>9.2985269798635903E-4</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="General">
+                  <c:v>1.1433156761357899E-3</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="General">
+                  <c:v>7.7799727707907496E-4</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="General">
+                  <c:v>3.7095510550811698E-3</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="General">
+                  <c:v>3.02653348334945E-3</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="General">
+                  <c:v>1.9920066945793599E-3</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="General">
+                  <c:v>1.3379902956248699E-3</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="General">
+                  <c:v>9.16222931020635E-4</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="General">
+                  <c:v>6.3896903468606899E-4</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="General">
+                  <c:v>4.5331030550346802E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-42BC-4DA6-91FC-DE4CDDC5D5BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_course.txt_30_yaw_change!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hybrid Stanley and Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_course.txt_30_yaw_change!$A$2:$A$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="207"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>20.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_course.txt_30_yaw_change!$E$2:$E$208</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="207"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.59204083889155E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.22464679914734E-17</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>4.1336745441971197E-2</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>7.8468822104444405E-2</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>7.04641472487849E-2</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>6.3139347635802007E-2</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>5.6328749071801E-2</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>5.0012712828557203E-2</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>4.4236416266014399E-2</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>3.9058635344838902E-2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>3.4521233618099202E-2</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>0.21823771815736201</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>-5.0440910006614402E-2</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>-2.1161984361639699E-2</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>0.161196530048026</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>-3.7621025060374597E-2</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>-5.4214725487271E-2</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>9.18357505476457E-2</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>-4.38848756732724E-2</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>-8.7207060675565204E-2</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>-7.3286913920863006E-2</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>-5.9681474867092001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>-4.6044335521009797E-2</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>-4.9186072409643601E-2</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>-3.3812433509729498E-2</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>-3.4365512877281103E-2</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>-2.9217223771807001E-2</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>-2.5602490368760299E-2</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>-2.6606141423056499E-2</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>-2.2801955981403998E-2</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>-1.6821143181863198E-2</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>-1.9023171972313499E-2</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>-1.6933908194363401E-2</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>-1.52575553994995E-2</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>-1.3874891610018999E-2</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>-1.2705173600483999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>-1.16930837579252E-2</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>-1.0800389607647501E-2</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>-1.1708079911867701E-2</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>-8.6281765433112306E-3</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>-8.1407284261477506E-3</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>-7.6607111237614002E-3</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>-8.4513655169292899E-3</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>-6.2638601832905099E-3</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>-5.9551198660718202E-3</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>-5.6335247304833604E-3</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>-6.23558000471098E-3</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>-4.6349669525055899E-3</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>-4.4116926868865199E-3</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>-4.9135738486665399E-3</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>-3.6573764213918402E-3</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>-3.49070895207102E-3</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>-3.89732143180592E-3</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>-2.9035043696294602E-3</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>-2.7740638321726001E-3</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>-3.0993304081498702E-3</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>-2.3102591122352999E-3</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>-2.2078391063870299E-3</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>-2.4666159167829002E-3</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>-1.8392128169638501E-3</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>-1.7575749175435E-3</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>-1.9630319685556598E-3</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>-1.46396158304868E-3</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>-1.3987609897783101E-3</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>-1.5618060812473899E-3</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>-1.16481729980036E-3</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>-1.11276049850323E-3</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>-1.2421723551490601E-3</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>-9.2642956319583805E-4</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>-8.8491153965587505E-4</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>-9.8767064777144993E-4</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>-7.3658667697468704E-4</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>-8.3072305828966098E-4</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>-6.1978173283354799E-4</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>-5.94796121757943E-4</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>-0.132014477417667</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>-6.7192961111179297E-2</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>-6.0225650165035199E-2</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>-5.3805108610420198E-2</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>-4.7895318175527203E-2</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
+                  <c:v>-4.2522161315387101E-2</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="General">
+                  <c:v>-3.7725851447244101E-2</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="General">
+                  <c:v>-3.3533336395056998E-2</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="General">
+                  <c:v>-2.99457631038186E-2</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="General">
+                  <c:v>-2.6936930281586599E-2</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="General">
+                  <c:v>-0.22361037172152101</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="General">
+                  <c:v>6.8228774465873304E-2</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>2.7894249738544801E-2</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="General">
+                  <c:v>-0.13417621573494101</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="General">
+                  <c:v>1.4452513871907999</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="General">
+                  <c:v>-1.0933410482722401</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="General">
+                  <c:v>-4.2593529642788099E-2</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="General">
+                  <c:v>-2.8008831177862001E-2</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="General">
+                  <c:v>-1.70964986881155E-2</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>-8.9752334890199608E-3</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="General">
+                  <c:v>-3.06790834523129E-3</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="General">
+                  <c:v>2.0554882152840001E-3</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="General">
+                  <c:v>6.4700125129937202E-3</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="General">
+                  <c:v>9.7007831706505902E-3</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="General">
+                  <c:v>1.26713699520958E-2</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="General">
+                  <c:v>1.60915632668398E-2</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>1.7447359497754899E-2</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>1.92853541877217E-2</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>2.0805311650957101E-2</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="General">
+                  <c:v>2.3223546893697398E-2</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>2.2819096954963501E-2</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="General">
+                  <c:v>2.3466792296299901E-2</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="General">
+                  <c:v>2.3859805942960301E-2</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>2.5309197492330598E-2</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>2.3735532159927099E-2</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>2.47254087318221E-2</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>2.27849764042223E-2</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="General">
+                  <c:v>2.3365947232116501E-2</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>2.1201511376419398E-2</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>2.1439201881683301E-2</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>2.02077554862795E-2</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="General">
+                  <c:v>1.7963008071260798E-2</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>1.7826090385302199E-2</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>1.6481382983694601E-2</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="General">
+                  <c:v>1.4379098516127699E-2</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>-2.1108621883833601E-2</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>3.4083575727579897E-2</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>2.59203817966428E-2</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>1.9443608288042299E-2</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="General">
+                  <c:v>1.40471288635401E-2</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>1.0685875842721701E-2</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>7.7176847949336101E-3</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>5.0477283888272304E-3</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="General">
+                  <c:v>3.8571756889594299E-3</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="General">
+                  <c:v>2.52748920826286E-3</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="General">
+                  <c:v>1.16696224536129E-3</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="General">
+                  <c:v>9.12959664444157E-4</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="General">
+                  <c:v>3.36117894622282E-4</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="General">
+                  <c:v>-3.91032919245554E-4</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="General">
+                  <c:v>-2.7165875350651102E-4</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>-5.0761637926700898E-4</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>-9.2152344011416001E-4</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="General">
+                  <c:v>-6.7786630035463196E-4</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="General">
+                  <c:v>-7.6239977626787602E-4</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="General">
+                  <c:v>-1.0154731123845199E-3</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="General">
+                  <c:v>-7.5290071260159398E-4</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="General">
+                  <c:v>-7.7239384558639205E-4</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="General">
+                  <c:v>-9.3840674494087301E-4</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="General">
+                  <c:v>-6.9776223308717997E-4</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="General">
+                  <c:v>-6.9115600061191997E-4</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="General">
+                  <c:v>-8.0683626956226401E-4</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="General">
+                  <c:v>-6.0073756612526695E-4</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="General">
+                  <c:v>-5.85238951945739E-4</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="General">
+                  <c:v>-6.6964762064828905E-4</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="General">
+                  <c:v>-9.8506848260868501E-3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.0959845917403901E-5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.5506154492143599E-5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3.1711575150999501E-5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4.04952049348431E-5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.04952049348431E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-42BC-4DA6-91FC-DE4CDDC5D5BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="728616335"/>
+        <c:axId val="728616751"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="728616335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728616751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="728616751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Yaw</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> change</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728616335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAB212B-8A4A-4CC9-958E-DC6819E82C9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -875,11 +7003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209:A250"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4545,5 +10673,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>